--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T23:11:23+00:00</t>
+    <t>2024-07-08T16:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:31:04+00:00</t>
+    <t>2024-07-11T20:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T20:02:03+00:00</t>
+    <t>2024-07-15T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T14:16:39+00:00</t>
+    <t>2024-07-30T19:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T19:47:38+00:00</t>
+    <t>2024-08-08T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Study Name Type" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-study-name-type-vs.xlsx
+++ b/ValueSet-study-name-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
